--- a/data/trans_bre/P19C08-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P19C08-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.2673387066417966</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.03797648558878271</v>
+        <v>0.03797648558878279</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.4660761661464498</v>
@@ -649,7 +649,7 @@
         <v>-1</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.07442552255939759</v>
+        <v>0.07442552255939776</v>
       </c>
     </row>
     <row r="5">
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.390823631818239</v>
+        <v>-1.387295471633265</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.142843236250923</v>
+        <v>-3.438871221895347</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.345708068702872</v>
+        <v>-1.356754682515601</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.7799355564346864</v>
+        <v>-0.8484041602540296</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="inlineStr"/>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7961146878236616</v>
+        <v>0.8939407592536271</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1383321868614605</v>
+        <v>0.1105706753951632</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8152689128379903</v>
+        <v>0.7391771917513038</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.4462686920595546</v>
+        <v>0.4462686920595548</v>
       </c>
     </row>
     <row r="8">
@@ -746,18 +746,20 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.6407766829717559</v>
+        <v>-0.5662900032701482</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.9189754971704588</v>
+        <v>-0.8915416599981465</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.5691368529709975</v>
-      </c>
-      <c r="G8" s="6" t="inlineStr"/>
+        <v>-0.5196370263332657</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.8167812714015147</v>
+      </c>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="inlineStr"/>
@@ -770,16 +772,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.554558225012872</v>
+        <v>2.333822538083423</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.352254899534347</v>
+        <v>1.314645563351429</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.789189173117498</v>
+        <v>1.600855121948508</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9956000168708379</v>
+        <v>1.081441385412975</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
@@ -807,7 +809,7 @@
         <v>0.82345517881062</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.5910562541708423</v>
+        <v>-0.5910562541708422</v>
       </c>
       <c r="G10" s="6" t="inlineStr"/>
       <c r="H10" s="6" t="n">
@@ -817,7 +819,7 @@
         <v>2.897021012327555</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.6239673072020915</v>
+        <v>-0.6239673072020914</v>
       </c>
     </row>
     <row r="11">
@@ -829,13 +831,13 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>-0.7596037184287131</v>
+        <v>-0.7592196298434915</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.5689777352288227</v>
+        <v>-0.5634886403272195</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.613073087367175</v>
+        <v>-1.618238886266743</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
@@ -851,13 +853,13 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>1.322821643868861</v>
+        <v>1.322002227922229</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.220741361661603</v>
+        <v>4.997644138820634</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4808753095127944</v>
+        <v>0.6040395443541449</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
@@ -908,22 +910,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.4881203920924921</v>
+        <v>-0.5473798739270126</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.1862980769537846</v>
+        <v>-0.1558779421612861</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.2328392417086927</v>
+        <v>-0.232942208206894</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.551051664887395</v>
+        <v>-0.5699698580677759</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9281680415454561</v>
       </c>
     </row>
     <row r="15">
@@ -934,16 +936,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7454944800405188</v>
+        <v>0.6836621919965888</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.196904015560496</v>
+        <v>1.202136232570938</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6739775435364301</v>
+        <v>0.671686953006324</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9114961066741857</v>
+        <v>0.9463733971424094</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
@@ -971,7 +973,7 @@
         <v>0.1760909978116856</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-0.6797367694997869</v>
+        <v>-0.6797367694997871</v>
       </c>
       <c r="G16" s="6" t="inlineStr">
         <is>
@@ -996,16 +998,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2013222997607423</v>
+        <v>0.2049335662900676</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.841639567564708</v>
+        <v>-2.020012700983246</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.4328622816038235</v>
+        <v>-0.427102143261091</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.034660801107201</v>
+        <v>-3.279245950323337</v>
       </c>
       <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="n">
@@ -1022,20 +1024,20 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.079858472393729</v>
+        <v>2.304215250102308</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4711477241180709</v>
+        <v>0.5349856212801193</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.001016647206173</v>
+        <v>0.9593866206388321</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09069356135251096</v>
+        <v>0.09035780971058328</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>1.541700236938049</v>
+        <v>2.035808415324975</v>
       </c>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="inlineStr"/>
@@ -1084,14 +1086,14 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-1.925697934143953</v>
+        <v>-1.92901792649376</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.347878699393701</v>
+        <v>-1.369895124104572</v>
       </c>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>0.2243820401608183</v>
+        <v>0.2233666343854446</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
@@ -1106,14 +1108,14 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4669130991597014</v>
+        <v>0.464052659046641</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8882487307904499</v>
+        <v>0.9796351447235325</v>
       </c>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>1.259917710553245</v>
+        <v>1.25561798987347</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
@@ -1141,7 +1143,7 @@
         <v>0.05231255499523711</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-0.04836326574186615</v>
+        <v>-0.04836326574186624</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5818408451674943</v>
@@ -1153,7 +1155,7 @@
         <v>0.3370213909998093</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.09608036844593776</v>
+        <v>-0.09608036844593792</v>
       </c>
     </row>
     <row r="23">
@@ -1164,28 +1166,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.1490481217851536</v>
+        <v>-0.1702133052662289</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.4772014338557735</v>
+        <v>-0.5223423058893507</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.201572838657084</v>
+        <v>-0.1684592317495333</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.470250796307818</v>
+        <v>-0.4244765084329643</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.3641838855176997</v>
+        <v>-0.3642215877929501</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.5238249359207909</v>
+        <v>-0.5539334589801265</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.8015459653948944</v>
+        <v>-0.7769267302329531</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.6001318625535843</v>
+        <v>-0.5741850819818171</v>
       </c>
     </row>
     <row r="24">
@@ -1196,28 +1198,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5969073356895915</v>
+        <v>0.5845550258740589</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3517196705193718</v>
+        <v>0.3905861129569219</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2780117358764279</v>
+        <v>0.2868518699344007</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.291601926066818</v>
+        <v>0.3054729592162332</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>3.065991307164658</v>
+        <v>3.345410317668265</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9192160184506775</v>
+        <v>1.054206009201106</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>4.7495818697943</v>
+        <v>6.304820536029956</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.023025695366715</v>
+        <v>1.002821579455667</v>
       </c>
     </row>
     <row r="25">
